--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7D8719EA-3C73-4F82-9EC6-52D4549876F4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4125571D-5770-42ED-9CA2-67283C945B49}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,30 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
   <si>
-    <t>DATA DADO</t>
+    <t>2888.3</t>
   </si>
   <si>
-    <t>COD FLU</t>
+    <t>Data</t>
   </si>
   <si>
-    <t>NOME</t>
+    <t>Chuva (mm)</t>
   </si>
   <si>
-    <t>NIVEL</t>
+    <t>Nível (cm)</t>
   </si>
   <si>
-    <t>CHUVA</t>
-  </si>
-  <si>
-    <t>VAZAO</t>
-  </si>
-  <si>
-    <t>Balbina Tucumary</t>
-  </si>
-  <si>
-    <t>2888.3</t>
+    <t>Vazão (m3/s</t>
   </si>
 </sst>
 </file>
@@ -84,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,422 +358,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45200.986805555556</v>
       </c>
-      <c r="B2">
-        <v>16070900</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45200.945138888892</v>
       </c>
-      <c r="B3">
-        <v>16070900</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45200.90347222222</v>
       </c>
-      <c r="B4">
-        <v>16070900</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45200.861805555556</v>
       </c>
-      <c r="B5">
-        <v>16070900</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45200.820138888892</v>
       </c>
-      <c r="B6">
-        <v>16070900</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45200.77847222222</v>
       </c>
-      <c r="B7">
-        <v>16070900</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45200.736805555556</v>
       </c>
-      <c r="B8">
-        <v>16070900</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45200.695138888892</v>
       </c>
-      <c r="B9">
-        <v>16070900</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45200.65347222222</v>
       </c>
-      <c r="B10">
-        <v>16070900</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45200.611805555556</v>
       </c>
-      <c r="B11">
-        <v>16070900</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45200.570138888892</v>
       </c>
-      <c r="B12">
-        <v>16070900</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45200.52847222222</v>
       </c>
-      <c r="B13">
-        <v>16070900</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45200.486805555556</v>
       </c>
-      <c r="B14">
-        <v>16070900</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45200.445138888892</v>
       </c>
-      <c r="B15">
-        <v>16070900</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45200.40347222222</v>
       </c>
-      <c r="B16">
-        <v>16070900</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45200.361805555556</v>
       </c>
-      <c r="B17">
-        <v>16070900</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45200.320138888892</v>
       </c>
-      <c r="B18">
-        <v>16070900</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45200.27847222222</v>
       </c>
-      <c r="B19">
-        <v>16070900</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45200.236805555556</v>
       </c>
-      <c r="B20">
-        <v>16070900</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45200.195138888892</v>
       </c>
-      <c r="B21">
-        <v>16070900</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45200.15347222222</v>
       </c>
-      <c r="B22">
-        <v>16070900</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45200.111805555556</v>
       </c>
-      <c r="B23">
-        <v>16070900</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45200.070138888892</v>
       </c>
-      <c r="B24">
-        <v>16070900</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45200.02847222222</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
         <v>0</v>
       </c>
     </row>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4125571D-5770-42ED-9CA2-67283C945B49}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{69A640F6-DB86-401D-B580-7534840BC876}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>Nível (cm)</t>
   </si>
   <si>
-    <t>Vazão (m3/s</t>
+    <t>Vazão (m3/s)</t>
   </si>
 </sst>
 </file>
@@ -361,12 +361,15 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{69A640F6-DB86-401D-B580-7534840BC876}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2724801-2536-4545-918A-754B82C7D317}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
-  <si>
-    <t>2888.3</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -40,6 +34,9 @@
   </si>
   <si>
     <t>Vazão (m3/s)</t>
+  </si>
+  <si>
+    <t>Data-Hora</t>
   </si>
 </sst>
 </file>
@@ -361,7 +358,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,16 +371,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -391,8 +388,8 @@
         <v>45200.986805555556</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" t="s">
-        <v>0</v>
+      <c r="C2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -400,8 +397,8 @@
         <v>45200.945138888892</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>0</v>
+      <c r="C3">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -409,8 +406,8 @@
         <v>45200.90347222222</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>0</v>
+      <c r="C4">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -418,8 +415,8 @@
         <v>45200.861805555556</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>0</v>
+      <c r="C5">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -427,8 +424,8 @@
         <v>45200.820138888892</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>0</v>
+      <c r="C6">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,8 +433,8 @@
         <v>45200.77847222222</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>0</v>
+      <c r="C7">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,8 +442,8 @@
         <v>45200.736805555556</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" t="s">
-        <v>0</v>
+      <c r="C8">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,8 +451,8 @@
         <v>45200.695138888892</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>0</v>
+      <c r="C9">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,8 +460,8 @@
         <v>45200.65347222222</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" t="s">
-        <v>0</v>
+      <c r="C10">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,8 +469,8 @@
         <v>45200.611805555556</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>0</v>
+      <c r="C11">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,8 +478,8 @@
         <v>45200.570138888892</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>0</v>
+      <c r="C12">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,8 +487,8 @@
         <v>45200.52847222222</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>0</v>
+      <c r="C13">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,8 +496,8 @@
         <v>45200.486805555556</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>0</v>
+      <c r="C14">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,8 +505,8 @@
         <v>45200.445138888892</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" t="s">
-        <v>0</v>
+      <c r="C15">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,8 +514,8 @@
         <v>45200.40347222222</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" t="s">
-        <v>0</v>
+      <c r="C16">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,8 +523,8 @@
         <v>45200.361805555556</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" t="s">
-        <v>0</v>
+      <c r="C17">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,8 +532,8 @@
         <v>45200.320138888892</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" t="s">
-        <v>0</v>
+      <c r="C18">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,8 +541,8 @@
         <v>45200.27847222222</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" t="s">
-        <v>0</v>
+      <c r="C19">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,8 +550,8 @@
         <v>45200.236805555556</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" t="s">
-        <v>0</v>
+      <c r="C20">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,8 +559,8 @@
         <v>45200.195138888892</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" t="s">
-        <v>0</v>
+      <c r="C21">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,8 +568,8 @@
         <v>45200.15347222222</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" t="s">
-        <v>0</v>
+      <c r="C22">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,8 +577,8 @@
         <v>45200.111805555556</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" t="s">
-        <v>0</v>
+      <c r="C23">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,8 +586,8 @@
         <v>45200.070138888892</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" t="s">
-        <v>0</v>
+      <c r="C24">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,8 +595,8 @@
         <v>45200.02847222222</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" t="s">
-        <v>0</v>
+      <c r="C25">
+        <v>2888.3</v>
       </c>
     </row>
   </sheetData>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2724801-2536-4545-918A-754B82C7D317}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{28791DFB-4741-41D4-AB62-695EB75757E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +602,270 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45215.02847222222</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45215.070138888892</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45215.111805555556</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45215.15347222222</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45215.195138888892</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45215.236805555556</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45215.27847222222</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45215.320138888892</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45215.361805555556</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45215.40347222222</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45215.445138888892</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45215.486805555556</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45215.52847222222</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45215.570138888892</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45215.611805555556</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45215.65347222222</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45215.695138888892</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45215.736805555556</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45215.77847222222</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45215.820138888892</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45215.861805555556</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45215.90347222222</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45215.945138888892</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45215.986805555556</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{28791DFB-4741-41D4-AB62-695EB75757E1}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E581C2BC-BFD8-4286-8FCD-91CE0A7A83F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -358,17 +361,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,10 +379,10 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -390,8 +393,8 @@
       <c r="A2" s="1">
         <v>45200.986805555556</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -399,8 +402,8 @@
       <c r="A3" s="1">
         <v>45200.945138888892</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -408,8 +411,8 @@
       <c r="A4" s="1">
         <v>45200.90347222222</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -417,8 +420,8 @@
       <c r="A5" s="1">
         <v>45200.861805555556</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -426,8 +429,8 @@
       <c r="A6" s="1">
         <v>45200.820138888892</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -435,8 +438,8 @@
       <c r="A7" s="1">
         <v>45200.77847222222</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -444,8 +447,8 @@
       <c r="A8" s="1">
         <v>45200.736805555556</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -453,8 +456,8 @@
       <c r="A9" s="1">
         <v>45200.695138888892</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -462,8 +465,8 @@
       <c r="A10" s="1">
         <v>45200.65347222222</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -471,8 +474,8 @@
       <c r="A11" s="1">
         <v>45200.611805555556</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -480,8 +483,8 @@
       <c r="A12" s="1">
         <v>45200.570138888892</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -489,8 +492,8 @@
       <c r="A13" s="1">
         <v>45200.52847222222</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -498,8 +501,8 @@
       <c r="A14" s="1">
         <v>45200.486805555556</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -507,8 +510,8 @@
       <c r="A15" s="1">
         <v>45200.445138888892</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -516,8 +519,8 @@
       <c r="A16" s="1">
         <v>45200.40347222222</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -525,8 +528,8 @@
       <c r="A17" s="1">
         <v>45200.361805555556</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -534,8 +537,8 @@
       <c r="A18" s="1">
         <v>45200.320138888892</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -543,8 +546,8 @@
       <c r="A19" s="1">
         <v>45200.27847222222</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -552,8 +555,8 @@
       <c r="A20" s="1">
         <v>45200.236805555556</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -561,8 +564,8 @@
       <c r="A21" s="1">
         <v>45200.195138888892</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -570,8 +573,8 @@
       <c r="A22" s="1">
         <v>45200.15347222222</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -579,8 +582,8 @@
       <c r="A23" s="1">
         <v>45200.111805555556</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -588,8 +591,8 @@
       <c r="A24" s="1">
         <v>45200.070138888892</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -597,8 +600,8 @@
       <c r="A25" s="1">
         <v>45200.02847222222</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -606,7 +609,7 @@
       <c r="A26" s="1">
         <v>45215.02847222222</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" s="2">
@@ -617,7 +620,7 @@
       <c r="A27" s="1">
         <v>45215.070138888892</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" s="2">
@@ -628,7 +631,7 @@
       <c r="A28" s="1">
         <v>45215.111805555556</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" s="2">
@@ -639,7 +642,7 @@
       <c r="A29" s="1">
         <v>45215.15347222222</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" s="2">
@@ -650,7 +653,7 @@
       <c r="A30" s="1">
         <v>45215.195138888892</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30" s="2">
@@ -661,7 +664,7 @@
       <c r="A31" s="1">
         <v>45215.236805555556</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="2">
@@ -672,7 +675,7 @@
       <c r="A32" s="1">
         <v>45215.27847222222</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
@@ -683,7 +686,7 @@
       <c r="A33" s="1">
         <v>45215.320138888892</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" s="2">
@@ -694,7 +697,7 @@
       <c r="A34" s="1">
         <v>45215.361805555556</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0</v>
       </c>
       <c r="C34" s="2">
@@ -705,7 +708,7 @@
       <c r="A35" s="1">
         <v>45215.40347222222</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="2">
@@ -716,7 +719,7 @@
       <c r="A36" s="1">
         <v>45215.445138888892</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0</v>
       </c>
       <c r="C36" s="2">
@@ -727,7 +730,7 @@
       <c r="A37" s="1">
         <v>45215.486805555556</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0</v>
       </c>
       <c r="C37" s="2">
@@ -738,7 +741,7 @@
       <c r="A38" s="1">
         <v>45215.52847222222</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2">
@@ -749,7 +752,7 @@
       <c r="A39" s="1">
         <v>45215.570138888892</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39" s="2">
@@ -760,7 +763,7 @@
       <c r="A40" s="1">
         <v>45215.611805555556</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0</v>
       </c>
       <c r="C40" s="2">
@@ -771,7 +774,7 @@
       <c r="A41" s="1">
         <v>45215.65347222222</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0</v>
       </c>
       <c r="C41" s="2">
@@ -782,7 +785,7 @@
       <c r="A42" s="1">
         <v>45215.695138888892</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>0</v>
       </c>
       <c r="C42" s="2">
@@ -793,7 +796,7 @@
       <c r="A43" s="1">
         <v>45215.736805555556</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0</v>
       </c>
       <c r="C43" s="2">
@@ -804,7 +807,7 @@
       <c r="A44" s="1">
         <v>45215.77847222222</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>0</v>
       </c>
       <c r="C44" s="2">
@@ -815,7 +818,7 @@
       <c r="A45" s="1">
         <v>45215.820138888892</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>0</v>
       </c>
       <c r="C45" s="2">
@@ -826,7 +829,7 @@
       <c r="A46" s="1">
         <v>45215.861805555556</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0</v>
       </c>
       <c r="C46" s="2">
@@ -837,7 +840,7 @@
       <c r="A47" s="1">
         <v>45215.90347222222</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>0</v>
       </c>
       <c r="C47" s="2">
@@ -848,7 +851,7 @@
       <c r="A48" s="1">
         <v>45215.945138888892</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>0</v>
       </c>
       <c r="C48" s="2">
@@ -859,10 +862,340 @@
       <c r="A49" s="1">
         <v>45215.986805555556</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>0</v>
       </c>
       <c r="C49" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45216.02847222222</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45216.070138888892</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45216.111805555556</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45216.15347222222</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45216.195138888892</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45216.236805555556</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45216.27847222222</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45216.320138888892</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45216.361805555556</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45216.40347222222</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45216.445138888892</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45216.486805555556</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45216.52847222222</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45216.570138888892</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45216.611805555556</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45216.65347222222</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45216.695138888892</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45216.736805555556</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45216.77847222222</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45216.861805555556</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45216.90347222222</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45216.945138888892</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45216.986805555556</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45217.02847222222</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45217.070138888892</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45217.111805555556</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45217.15347222222</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45217.195138888892</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45217.236805555556</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45217.27847222222</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
         <v>2888.3</v>
       </c>
     </row>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -363,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E581C2BC-BFD8-4286-8FCD-91CE0A7A83F7}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2684DC84-6A42-45A7-BA69-58077AB3E7D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Data-Hora</t>
+  </si>
+  <si>
+    <t>2888.3</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,6 +1202,72 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45217.320138888892</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45217.361805555556</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45217.40347222222</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45217.445138888892</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45217.486805555556</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45217.52847222222</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2684DC84-6A42-45A7-BA69-58077AB3E7D3}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C188D737-2482-4CA3-BF82-1F554912FC3A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,6 +1268,204 @@
         <v>4</v>
       </c>
     </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>45217.570138888892</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>45217.611805555556</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>45217.65347222222</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>45217.695138888892</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>45217.736805555556</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>45217.77847222222</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>45217.820138888892</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>45217.861805555556</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>45217.90347222222</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>45217.945138888892</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>45217.986805555556</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45218.02847222222</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45218.070138888892</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45218.111805555556</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45218.15347222222</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45218.195138888892</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45218.236805555556</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45218.27847222222</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C188D737-2482-4CA3-BF82-1F554912FC3A}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF0E5253-DBBD-4574-BE6B-8D65ACB527D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,6 +1466,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45218.320138888892</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45218.361805555556</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45218.40347222222</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45218.445138888892</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45218.486805555556</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF0E5253-DBBD-4574-BE6B-8D65ACB527D9}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58C4F0B0-C8FC-4FEC-A0A3-A42E133A48C7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,6 +1521,138 @@
         <v>4</v>
       </c>
     </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45218.52847222222</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45218.570138888892</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45218.611805555556</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45218.65347222222</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45218.695138888892</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45218.736805555556</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45218.77847222222</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45218.820138888892</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45218.861805555556</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45218.90347222222</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45218.945138888892</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45218.986805555556</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58C4F0B0-C8FC-4FEC-A0A3-A42E133A48C7}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4D4AFFE0-2488-421A-8D82-53D00F6F57DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Data-Hora</t>
-  </si>
-  <si>
-    <t>2888.3</t>
   </si>
 </sst>
 </file>
@@ -75,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -84,6 +81,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +394,9 @@
       <c r="A2" s="1">
         <v>45200.986805555556</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
       <c r="C2" s="2">
         <v>2888.3</v>
       </c>
@@ -405,7 +405,9 @@
       <c r="A3" s="1">
         <v>45200.945138888892</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
         <v>2888.3</v>
       </c>
@@ -414,7 +416,9 @@
       <c r="A4" s="1">
         <v>45200.90347222222</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
       <c r="C4" s="2">
         <v>2888.3</v>
       </c>
@@ -423,7 +427,9 @@
       <c r="A5" s="1">
         <v>45200.861805555556</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
       <c r="C5" s="2">
         <v>2888.3</v>
       </c>
@@ -432,7 +438,9 @@
       <c r="A6" s="1">
         <v>45200.820138888892</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
       <c r="C6" s="2">
         <v>2888.3</v>
       </c>
@@ -441,7 +449,9 @@
       <c r="A7" s="1">
         <v>45200.77847222222</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
       <c r="C7" s="2">
         <v>2888.3</v>
       </c>
@@ -450,7 +460,9 @@
       <c r="A8" s="1">
         <v>45200.736805555556</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
       <c r="C8" s="2">
         <v>2888.3</v>
       </c>
@@ -459,7 +471,9 @@
       <c r="A9" s="1">
         <v>45200.695138888892</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
       <c r="C9" s="2">
         <v>2888.3</v>
       </c>
@@ -468,7 +482,9 @@
       <c r="A10" s="1">
         <v>45200.65347222222</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
       <c r="C10" s="2">
         <v>2888.3</v>
       </c>
@@ -477,7 +493,9 @@
       <c r="A11" s="1">
         <v>45200.611805555556</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
       <c r="C11" s="2">
         <v>2888.3</v>
       </c>
@@ -486,7 +504,9 @@
       <c r="A12" s="1">
         <v>45200.570138888892</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
       <c r="C12" s="2">
         <v>2888.3</v>
       </c>
@@ -495,7 +515,9 @@
       <c r="A13" s="1">
         <v>45200.52847222222</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
       <c r="C13" s="2">
         <v>2888.3</v>
       </c>
@@ -504,7 +526,9 @@
       <c r="A14" s="1">
         <v>45200.486805555556</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
       <c r="C14" s="2">
         <v>2888.3</v>
       </c>
@@ -513,7 +537,9 @@
       <c r="A15" s="1">
         <v>45200.445138888892</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
       <c r="C15" s="2">
         <v>2888.3</v>
       </c>
@@ -522,7 +548,9 @@
       <c r="A16" s="1">
         <v>45200.40347222222</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
       <c r="C16" s="2">
         <v>2888.3</v>
       </c>
@@ -531,7 +559,9 @@
       <c r="A17" s="1">
         <v>45200.361805555556</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
       <c r="C17" s="2">
         <v>2888.3</v>
       </c>
@@ -540,7 +570,9 @@
       <c r="A18" s="1">
         <v>45200.320138888892</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
       <c r="C18" s="2">
         <v>2888.3</v>
       </c>
@@ -549,7 +581,9 @@
       <c r="A19" s="1">
         <v>45200.27847222222</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
       <c r="C19" s="2">
         <v>2888.3</v>
       </c>
@@ -558,7 +592,9 @@
       <c r="A20" s="1">
         <v>45200.236805555556</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
       <c r="C20" s="2">
         <v>2888.3</v>
       </c>
@@ -567,7 +603,9 @@
       <c r="A21" s="1">
         <v>45200.195138888892</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
       <c r="C21" s="2">
         <v>2888.3</v>
       </c>
@@ -576,7 +614,9 @@
       <c r="A22" s="1">
         <v>45200.15347222222</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
       <c r="C22" s="2">
         <v>2888.3</v>
       </c>
@@ -585,7 +625,9 @@
       <c r="A23" s="1">
         <v>45200.111805555556</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
       <c r="C23" s="2">
         <v>2888.3</v>
       </c>
@@ -594,7 +636,9 @@
       <c r="A24" s="1">
         <v>45200.070138888892</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
       <c r="C24" s="2">
         <v>2888.3</v>
       </c>
@@ -603,7 +647,9 @@
       <c r="A25" s="1">
         <v>45200.02847222222</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
       <c r="C25" s="2">
         <v>2888.3</v>
       </c>
@@ -612,7 +658,7 @@
       <c r="A26" s="1">
         <v>45215.02847222222</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26" s="2">
@@ -623,7 +669,7 @@
       <c r="A27" s="1">
         <v>45215.070138888892</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>0</v>
       </c>
       <c r="C27" s="2">
@@ -634,7 +680,7 @@
       <c r="A28" s="1">
         <v>45215.111805555556</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>0</v>
       </c>
       <c r="C28" s="2">
@@ -645,7 +691,7 @@
       <c r="A29" s="1">
         <v>45215.15347222222</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>0</v>
       </c>
       <c r="C29" s="2">
@@ -656,7 +702,7 @@
       <c r="A30" s="1">
         <v>45215.195138888892</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>0</v>
       </c>
       <c r="C30" s="2">
@@ -667,7 +713,7 @@
       <c r="A31" s="1">
         <v>45215.236805555556</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>0</v>
       </c>
       <c r="C31" s="2">
@@ -678,7 +724,7 @@
       <c r="A32" s="1">
         <v>45215.27847222222</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>0</v>
       </c>
       <c r="C32" s="2">
@@ -689,7 +735,7 @@
       <c r="A33" s="1">
         <v>45215.320138888892</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>0</v>
       </c>
       <c r="C33" s="2">
@@ -700,7 +746,7 @@
       <c r="A34" s="1">
         <v>45215.361805555556</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>0</v>
       </c>
       <c r="C34" s="2">
@@ -711,7 +757,7 @@
       <c r="A35" s="1">
         <v>45215.40347222222</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>0</v>
       </c>
       <c r="C35" s="2">
@@ -722,7 +768,7 @@
       <c r="A36" s="1">
         <v>45215.445138888892</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>0</v>
       </c>
       <c r="C36" s="2">
@@ -733,7 +779,7 @@
       <c r="A37" s="1">
         <v>45215.486805555556</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>0</v>
       </c>
       <c r="C37" s="2">
@@ -744,7 +790,7 @@
       <c r="A38" s="1">
         <v>45215.52847222222</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>0</v>
       </c>
       <c r="C38" s="2">
@@ -755,7 +801,7 @@
       <c r="A39" s="1">
         <v>45215.570138888892</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>0</v>
       </c>
       <c r="C39" s="2">
@@ -766,7 +812,7 @@
       <c r="A40" s="1">
         <v>45215.611805555556</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>0</v>
       </c>
       <c r="C40" s="2">
@@ -777,7 +823,7 @@
       <c r="A41" s="1">
         <v>45215.65347222222</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>0</v>
       </c>
       <c r="C41" s="2">
@@ -788,7 +834,7 @@
       <c r="A42" s="1">
         <v>45215.695138888892</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>0</v>
       </c>
       <c r="C42" s="2">
@@ -799,7 +845,7 @@
       <c r="A43" s="1">
         <v>45215.736805555556</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>0</v>
       </c>
       <c r="C43" s="2">
@@ -810,7 +856,7 @@
       <c r="A44" s="1">
         <v>45215.77847222222</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>0</v>
       </c>
       <c r="C44" s="2">
@@ -821,7 +867,7 @@
       <c r="A45" s="1">
         <v>45215.820138888892</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>0</v>
       </c>
       <c r="C45" s="2">
@@ -832,7 +878,7 @@
       <c r="A46" s="1">
         <v>45215.861805555556</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>0</v>
       </c>
       <c r="C46" s="2">
@@ -843,7 +889,7 @@
       <c r="A47" s="1">
         <v>45215.90347222222</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>0</v>
       </c>
       <c r="C47" s="2">
@@ -854,7 +900,7 @@
       <c r="A48" s="1">
         <v>45215.945138888892</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>0</v>
       </c>
       <c r="C48" s="2">
@@ -865,7 +911,7 @@
       <c r="A49" s="1">
         <v>45215.986805555556</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>0</v>
       </c>
       <c r="C49" s="2">
@@ -876,7 +922,7 @@
       <c r="A50" s="1">
         <v>45216.02847222222</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>0</v>
       </c>
       <c r="C50" s="2">
@@ -887,7 +933,7 @@
       <c r="A51" s="1">
         <v>45216.070138888892</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>0</v>
       </c>
       <c r="C51" s="2">
@@ -898,7 +944,7 @@
       <c r="A52" s="1">
         <v>45216.111805555556</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
         <v>0</v>
       </c>
       <c r="C52" s="2">
@@ -909,7 +955,7 @@
       <c r="A53" s="1">
         <v>45216.15347222222</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>0</v>
       </c>
       <c r="C53" s="2">
@@ -920,7 +966,7 @@
       <c r="A54" s="1">
         <v>45216.195138888892</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="4">
         <v>0</v>
       </c>
       <c r="C54" s="2">
@@ -931,7 +977,7 @@
       <c r="A55" s="1">
         <v>45216.236805555556</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <v>0</v>
       </c>
       <c r="C55" s="2">
@@ -942,7 +988,7 @@
       <c r="A56" s="1">
         <v>45216.27847222222</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4">
         <v>0</v>
       </c>
       <c r="C56" s="2">
@@ -953,7 +999,7 @@
       <c r="A57" s="1">
         <v>45216.320138888892</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>0</v>
       </c>
       <c r="C57" s="2">
@@ -964,7 +1010,7 @@
       <c r="A58" s="1">
         <v>45216.361805555556</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <v>0</v>
       </c>
       <c r="C58" s="2">
@@ -975,7 +1021,7 @@
       <c r="A59" s="1">
         <v>45216.40347222222</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>0</v>
       </c>
       <c r="C59" s="2">
@@ -986,7 +1032,7 @@
       <c r="A60" s="1">
         <v>45216.445138888892</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <v>0</v>
       </c>
       <c r="C60" s="2">
@@ -997,7 +1043,7 @@
       <c r="A61" s="1">
         <v>45216.486805555556</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>0</v>
       </c>
       <c r="C61" s="2">
@@ -1008,7 +1054,7 @@
       <c r="A62" s="1">
         <v>45216.52847222222</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <v>0</v>
       </c>
       <c r="C62" s="2">
@@ -1019,7 +1065,7 @@
       <c r="A63" s="1">
         <v>45216.570138888892</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4">
         <v>0</v>
       </c>
       <c r="C63" s="2">
@@ -1030,7 +1076,7 @@
       <c r="A64" s="1">
         <v>45216.611805555556</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4">
         <v>0</v>
       </c>
       <c r="C64" s="2">
@@ -1041,7 +1087,7 @@
       <c r="A65" s="1">
         <v>45216.65347222222</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>0</v>
       </c>
       <c r="C65" s="2">
@@ -1052,7 +1098,7 @@
       <c r="A66" s="1">
         <v>45216.695138888892</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <v>0</v>
       </c>
       <c r="C66" s="2">
@@ -1063,7 +1109,7 @@
       <c r="A67" s="1">
         <v>45216.736805555556</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4">
         <v>0</v>
       </c>
       <c r="C67" s="2">
@@ -1074,7 +1120,7 @@
       <c r="A68" s="1">
         <v>45216.77847222222</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="4">
         <v>0</v>
       </c>
       <c r="C68" s="2">
@@ -1085,7 +1131,7 @@
       <c r="A69" s="1">
         <v>45216.861805555556</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <v>0</v>
       </c>
       <c r="C69" s="2">
@@ -1096,7 +1142,7 @@
       <c r="A70" s="1">
         <v>45216.90347222222</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="4">
         <v>0</v>
       </c>
       <c r="C70" s="2">
@@ -1107,7 +1153,7 @@
       <c r="A71" s="1">
         <v>45216.945138888892</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="4">
         <v>0</v>
       </c>
       <c r="C71" s="2">
@@ -1118,7 +1164,7 @@
       <c r="A72" s="1">
         <v>45216.986805555556</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="4">
         <v>0</v>
       </c>
       <c r="C72" s="2">
@@ -1129,7 +1175,7 @@
       <c r="A73" s="1">
         <v>45217.02847222222</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="4">
         <v>0</v>
       </c>
       <c r="C73" s="2">
@@ -1140,7 +1186,7 @@
       <c r="A74" s="1">
         <v>45217.070138888892</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="4">
         <v>0</v>
       </c>
       <c r="C74" s="2">
@@ -1151,7 +1197,7 @@
       <c r="A75" s="1">
         <v>45217.111805555556</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="4">
         <v>0</v>
       </c>
       <c r="C75" s="2">
@@ -1162,7 +1208,7 @@
       <c r="A76" s="1">
         <v>45217.15347222222</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="4">
         <v>0</v>
       </c>
       <c r="C76" s="2">
@@ -1173,7 +1219,7 @@
       <c r="A77" s="1">
         <v>45217.195138888892</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="4">
         <v>0</v>
       </c>
       <c r="C77" s="2">
@@ -1184,7 +1230,7 @@
       <c r="A78" s="1">
         <v>45217.236805555556</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="4">
         <v>0</v>
       </c>
       <c r="C78" s="2">
@@ -1195,7 +1241,7 @@
       <c r="A79" s="1">
         <v>45217.27847222222</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="4">
         <v>0</v>
       </c>
       <c r="C79" s="2">
@@ -1206,326 +1252,326 @@
       <c r="A80" s="1">
         <v>45217.320138888892</v>
       </c>
-      <c r="B80" s="2">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>4</v>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45217.361805555556</v>
       </c>
-      <c r="B81" s="2">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>4</v>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45217.40347222222</v>
       </c>
-      <c r="B82" s="2">
-        <v>0</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>4</v>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45217.445138888892</v>
       </c>
-      <c r="B83" s="2">
-        <v>0</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>4</v>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45217.486805555556</v>
       </c>
-      <c r="B84" s="2">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>4</v>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45217.52847222222</v>
       </c>
-      <c r="B85" s="2">
-        <v>0</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>4</v>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>45217.570138888892</v>
       </c>
-      <c r="B86" s="2">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>4</v>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>45217.611805555556</v>
       </c>
-      <c r="B87" s="2">
-        <v>0</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>4</v>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>45217.65347222222</v>
       </c>
-      <c r="B88" s="2">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>4</v>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>45217.695138888892</v>
       </c>
-      <c r="B89" s="2">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>4</v>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>45217.736805555556</v>
       </c>
-      <c r="B90" s="2">
-        <v>0</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>4</v>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>45217.77847222222</v>
       </c>
-      <c r="B91" s="2">
-        <v>0</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>4</v>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>45217.820138888892</v>
       </c>
-      <c r="B92" s="2">
-        <v>0</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>4</v>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>45217.861805555556</v>
       </c>
-      <c r="B93" s="2">
-        <v>0</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>4</v>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>45217.90347222222</v>
       </c>
-      <c r="B94" s="2">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>4</v>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>45217.945138888892</v>
       </c>
-      <c r="B95" s="2">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>4</v>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>45217.986805555556</v>
       </c>
-      <c r="B96" s="2">
-        <v>0</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>4</v>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45218.02847222222</v>
       </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>4</v>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45218.070138888892</v>
       </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>4</v>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45218.111805555556</v>
       </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>4</v>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45218.15347222222</v>
       </c>
-      <c r="B100" s="2">
-        <v>0</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>4</v>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45218.195138888892</v>
       </c>
-      <c r="B101" s="2">
-        <v>0</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>4</v>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45218.236805555556</v>
       </c>
-      <c r="B102" s="2">
-        <v>0</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>4</v>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45218.27847222222</v>
       </c>
-      <c r="B103" s="2">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>4</v>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45218.320138888892</v>
       </c>
-      <c r="B104" s="2">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>4</v>
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45218.361805555556</v>
       </c>
-      <c r="B105" s="2">
-        <v>0</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>4</v>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45218.40347222222</v>
       </c>
-      <c r="B106" s="2">
-        <v>0</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>4</v>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45218.445138888892</v>
       </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>4</v>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45218.486805555556</v>
       </c>
-      <c r="B108" s="2">
-        <v>0</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>4</v>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2888.3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45218.52847222222</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>0</v>
       </c>
       <c r="C109">
@@ -1536,7 +1582,7 @@
       <c r="A110" s="1">
         <v>45218.570138888892</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>0</v>
       </c>
       <c r="C110">
@@ -1547,7 +1593,7 @@
       <c r="A111" s="1">
         <v>45218.611805555556</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>0</v>
       </c>
       <c r="C111">
@@ -1558,7 +1604,7 @@
       <c r="A112" s="1">
         <v>45218.65347222222</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>0</v>
       </c>
       <c r="C112">
@@ -1569,7 +1615,7 @@
       <c r="A113" s="1">
         <v>45218.695138888892</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>0</v>
       </c>
       <c r="C113">
@@ -1580,7 +1626,7 @@
       <c r="A114" s="1">
         <v>45218.736805555556</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>0</v>
       </c>
       <c r="C114">
@@ -1591,7 +1637,7 @@
       <c r="A115" s="1">
         <v>45218.77847222222</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>0</v>
       </c>
       <c r="C115">
@@ -1602,7 +1648,7 @@
       <c r="A116" s="1">
         <v>45218.820138888892</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>0</v>
       </c>
       <c r="C116">
@@ -1613,7 +1659,7 @@
       <c r="A117" s="1">
         <v>45218.861805555556</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>0</v>
       </c>
       <c r="C117">
@@ -1624,7 +1670,7 @@
       <c r="A118" s="1">
         <v>45218.90347222222</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>0</v>
       </c>
       <c r="C118">
@@ -1635,7 +1681,7 @@
       <c r="A119" s="1">
         <v>45218.945138888892</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>0</v>
       </c>
       <c r="C119">
@@ -1646,10 +1692,98 @@
       <c r="A120" s="1">
         <v>45218.986805555556</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>0</v>
       </c>
       <c r="C120">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45219.02847222222</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45219.070138888892</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45219.111805555556</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45219.15347222222</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45219.195138888892</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45219.236805555556</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45219.27847222222</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45219.320138888892</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128">
         <v>2888.3</v>
       </c>
     </row>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4D4AFFE0-2488-421A-8D82-53D00F6F57DA}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C66EAEE9-68EC-4F93-A783-49E8E63A451B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126:B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,6 +1787,83 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45219.361805555556</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45219.40347222222</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45219.445138888892</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45219.486805555556</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45219.52847222222</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45219.570138888892</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45219.611805555556</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C66EAEE9-68EC-4F93-A783-49E8E63A451B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31E02B28-2DE1-449D-82F6-72A4BE098996}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126:B135"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,6 +1864,237 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45219.65347222222</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45219.695138888892</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45219.736805555556</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45219.77847222222</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45219.820138888892</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45219.861805555556</v>
+      </c>
+      <c r="B141" s="4">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45219.90347222222</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45219.945138888892</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45219.986805555556</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45220.02847222222</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45220.070138888892</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45220.111805555556</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45220.15347222222</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45220.195138888892</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45220.236805555556</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45220.27847222222</v>
+      </c>
+      <c r="B151" s="4">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45220.320138888892</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45220.361805555556</v>
+      </c>
+      <c r="B153" s="4">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45220.40347222222</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45220.445138888892</v>
+      </c>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45220.486805555556</v>
+      </c>
+      <c r="B156" s="4">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31E02B28-2DE1-449D-82F6-72A4BE098996}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1666DDB5-DD40-4EE1-8F02-9285C906AAF3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,6 +2095,292 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45220.52847222222</v>
+      </c>
+      <c r="B157" s="4">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45220.570138888892</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45220.611805555556</v>
+      </c>
+      <c r="B159" s="4">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45220.65347222222</v>
+      </c>
+      <c r="B160" s="4">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45220.695138888892</v>
+      </c>
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45220.736805555556</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45220.77847222222</v>
+      </c>
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45220.820138888892</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45220.861805555556</v>
+      </c>
+      <c r="B165" s="4">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45220.90347222222</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45220.945138888892</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45220.986805555556</v>
+      </c>
+      <c r="B168" s="4">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45221.02847222222</v>
+      </c>
+      <c r="B169" s="4">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45221.070138888892</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45221.111805555556</v>
+      </c>
+      <c r="B171" s="4">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45221.15347222222</v>
+      </c>
+      <c r="B172" s="4">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45221.195138888892</v>
+      </c>
+      <c r="B173" s="4">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45221.236805555556</v>
+      </c>
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45221.27847222222</v>
+      </c>
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45221.320138888892</v>
+      </c>
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45221.361805555556</v>
+      </c>
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45221.40347222222</v>
+      </c>
+      <c r="B178" s="4">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45221.445138888892</v>
+      </c>
+      <c r="B179" s="4">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45221.486805555556</v>
+      </c>
+      <c r="B180" s="4">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45221.52847222222</v>
+      </c>
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45221.570138888892</v>
+      </c>
+      <c r="B182" s="4">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1666DDB5-DD40-4EE1-8F02-9285C906AAF3}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68B18E7E-D447-4324-AD2D-65609F59D7F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,6 +2381,182 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45221.611805555556</v>
+      </c>
+      <c r="B183" s="4">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45221.65347222222</v>
+      </c>
+      <c r="B184" s="4">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45221.695138888892</v>
+      </c>
+      <c r="B185" s="4">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45221.736805555556</v>
+      </c>
+      <c r="B186" s="4">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45221.77847222222</v>
+      </c>
+      <c r="B187" s="4">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45221.820138888892</v>
+      </c>
+      <c r="B188" s="4">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45221.861805555556</v>
+      </c>
+      <c r="B189" s="4">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45221.90347222222</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45221.945138888892</v>
+      </c>
+      <c r="B191" s="4">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45221.986805555556</v>
+      </c>
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45222.02847222222</v>
+      </c>
+      <c r="B193" s="4">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45222.070138888892</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45222.111805555556</v>
+      </c>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45222.15347222222</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45222.195138888892</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45222.236805555556</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68B18E7E-D447-4324-AD2D-65609F59D7F6}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2441C7FC-912C-4CA7-A42A-47B2574D3540}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +392,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45200.986805555556</v>
+        <v>45200.02847222222</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -403,7 +403,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45200.945138888892</v>
+        <v>45200.070138888892</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45200.90347222222</v>
+        <v>45200.111805555556</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45200.861805555556</v>
+        <v>45200.15347222222</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45200.820138888892</v>
+        <v>45200.195138888892</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45200.77847222222</v>
+        <v>45200.236805555556</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45200.736805555556</v>
+        <v>45200.27847222222</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45200.695138888892</v>
+        <v>45200.320138888892</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45200.65347222222</v>
+        <v>45200.361805555556</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45200.611805555556</v>
+        <v>45200.40347222222</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45200.570138888892</v>
+        <v>45200.445138888892</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45200.52847222222</v>
+        <v>45200.486805555556</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45200.486805555556</v>
+        <v>45200.52847222222</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45200.445138888892</v>
+        <v>45200.570138888892</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45200.40347222222</v>
+        <v>45200.611805555556</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45200.361805555556</v>
+        <v>45200.65347222222</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45200.320138888892</v>
+        <v>45200.695138888892</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45200.27847222222</v>
+        <v>45200.736805555556</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45200.236805555556</v>
+        <v>45200.77847222222</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45200.195138888892</v>
+        <v>45200.820138888892</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45200.15347222222</v>
+        <v>45200.861805555556</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45200.111805555556</v>
+        <v>45200.90347222222</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45200.070138888892</v>
+        <v>45200.945138888892</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45200.02847222222</v>
+        <v>45200.986805555556</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -2557,7 +2557,109 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45222.27847222222</v>
+      </c>
+      <c r="B199" s="4">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45222.320138888892</v>
+      </c>
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45222.361805555556</v>
+      </c>
+      <c r="B201" s="4">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45222.40347222222</v>
+      </c>
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45222.445138888892</v>
+      </c>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45222.486805555556</v>
+      </c>
+      <c r="B204" s="4">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45222.52847222222</v>
+      </c>
+      <c r="B205" s="4">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45222.570138888892</v>
+      </c>
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45222.611805555556</v>
+      </c>
+      <c r="B207" s="4">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
+    <sortCondition ref="A187:A198"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2441C7FC-912C-4CA7-A42A-47B2574D3540}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4BBA6E26-E4BC-454C-ADBD-1B061D6D01B1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="G204" sqref="G204"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,6 +2656,182 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45222.65347222222</v>
+      </c>
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45222.695138888892</v>
+      </c>
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45222.736805555556</v>
+      </c>
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45222.77847222222</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45222.820138888892</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45222.861805555556</v>
+      </c>
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45222.90347222222</v>
+      </c>
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45222.945138888892</v>
+      </c>
+      <c r="B215" s="4">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45222.986805555556</v>
+      </c>
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45223.02847222222</v>
+      </c>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45223.070138888892</v>
+      </c>
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45223.111805555556</v>
+      </c>
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45223.15347222222</v>
+      </c>
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45223.195138888892</v>
+      </c>
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45223.236805555556</v>
+      </c>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45223.27847222222</v>
+      </c>
+      <c r="B223" s="4">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
     <sortCondition ref="A187:A198"/>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4BBA6E26-E4BC-454C-ADBD-1B061D6D01B1}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6082D65C-22EF-460F-9BAC-1E77E308017B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,6 +2832,94 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45223.320138888892</v>
+      </c>
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45223.361805555556</v>
+      </c>
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45223.40347222222</v>
+      </c>
+      <c r="B226" s="4">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45223.445138888892</v>
+      </c>
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45223.486805555556</v>
+      </c>
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45223.52847222222</v>
+      </c>
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45223.570138888892</v>
+      </c>
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45223.611805555556</v>
+      </c>
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
     <sortCondition ref="A187:A198"/>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6082D65C-22EF-460F-9BAC-1E77E308017B}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{714D5346-40A4-493E-BDD9-22304BDE84CB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,6 +2920,490 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45223.65347222222</v>
+      </c>
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45223.695138888892</v>
+      </c>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45223.736805555556</v>
+      </c>
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45223.77847222222</v>
+      </c>
+      <c r="B235" s="4">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>45223.820138888892</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45223.861805555556</v>
+      </c>
+      <c r="B237" s="4">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45223.90347222222</v>
+      </c>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45223.945138888892</v>
+      </c>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45223.986805555556</v>
+      </c>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45224.02847222222</v>
+      </c>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45224.070138888892</v>
+      </c>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>45224.111805555556</v>
+      </c>
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>45224.15347222222</v>
+      </c>
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>45224.195138888892</v>
+      </c>
+      <c r="B245" s="4">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45224.236805555556</v>
+      </c>
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45224.27847222222</v>
+      </c>
+      <c r="B247" s="4">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45224.320138888892</v>
+      </c>
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45224.361805555556</v>
+      </c>
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45224.40347222222</v>
+      </c>
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45224.445138888892</v>
+      </c>
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45224.486805555556</v>
+      </c>
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45224.52847222222</v>
+      </c>
+      <c r="B253" s="4">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45224.570138888892</v>
+      </c>
+      <c r="B254" s="4">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45224.611805555556</v>
+      </c>
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45224.65347222222</v>
+      </c>
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45224.695138888892</v>
+      </c>
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45224.736805555556</v>
+      </c>
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45224.77847222222</v>
+      </c>
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45224.861805555556</v>
+      </c>
+      <c r="B260" s="4">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45224.945138888892</v>
+      </c>
+      <c r="B261" s="4">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45224.986805555556</v>
+      </c>
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>45225.02847222222</v>
+      </c>
+      <c r="B263" s="4">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>45225.070138888892</v>
+      </c>
+      <c r="B264" s="4">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>45225.111805555556</v>
+      </c>
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>45225.15347222222</v>
+      </c>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>45225.195138888892</v>
+      </c>
+      <c r="B267" s="4">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>45225.236805555556</v>
+      </c>
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45225.27847222222</v>
+      </c>
+      <c r="B269" s="4">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>45225.320138888892</v>
+      </c>
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>45225.361805555556</v>
+      </c>
+      <c r="B271" s="4">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>45225.40347222222</v>
+      </c>
+      <c r="B272" s="4">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>45225.445138888892</v>
+      </c>
+      <c r="B273" s="4">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>45225.486805555556</v>
+      </c>
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>45225.52847222222</v>
+      </c>
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
     <sortCondition ref="A187:A198"/>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{714D5346-40A4-493E-BDD9-22304BDE84CB}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3145677D-9E36-4208-A9A9-56F0432995DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="F264" sqref="F264"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="G282" sqref="G282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,6 +3404,127 @@
         <v>2888.3</v>
       </c>
     </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>45225.570138888892</v>
+      </c>
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>45225.611805555556</v>
+      </c>
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>45225.65347222222</v>
+      </c>
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>45225.695138888892</v>
+      </c>
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>45225.736805555556</v>
+      </c>
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>45225.77847222222</v>
+      </c>
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>45225.820138888892</v>
+      </c>
+      <c r="B282" s="4">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>45225.861805555556</v>
+      </c>
+      <c r="B283" s="4">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>45225.90347222222</v>
+      </c>
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>45225.945138888892</v>
+      </c>
+      <c r="B285" s="4">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45225.986805555556</v>
+      </c>
+      <c r="B286" s="4">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>2888.3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
     <sortCondition ref="A187:A198"/>

--- a/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
+++ b/dados_setor_eletrico/16070900 - UHE BALBINA TUCUMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3145677D-9E36-4208-A9A9-56F0432995DD}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{73E9198A-0840-4BD4-885E-03CD753DF66F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Data-Hora</t>
+  </si>
+  <si>
+    <t>2888.3</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="G282" sqref="G282"/>
+      <selection activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1577,7 @@
       <c r="B109" s="4">
         <v>0</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1585,7 +1588,7 @@
       <c r="B110" s="4">
         <v>0</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1596,7 +1599,7 @@
       <c r="B111" s="4">
         <v>0</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1607,7 +1610,7 @@
       <c r="B112" s="4">
         <v>0</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1618,7 +1621,7 @@
       <c r="B113" s="4">
         <v>0</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1629,7 +1632,7 @@
       <c r="B114" s="4">
         <v>0</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1640,7 +1643,7 @@
       <c r="B115" s="4">
         <v>0</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1651,7 +1654,7 @@
       <c r="B116" s="4">
         <v>0</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1662,7 +1665,7 @@
       <c r="B117" s="4">
         <v>0</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1673,7 +1676,7 @@
       <c r="B118" s="4">
         <v>0</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1684,7 +1687,7 @@
       <c r="B119" s="4">
         <v>0</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1695,7 +1698,7 @@
       <c r="B120" s="4">
         <v>0</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1706,7 +1709,7 @@
       <c r="B121" s="4">
         <v>0</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1717,7 +1720,7 @@
       <c r="B122" s="4">
         <v>0</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1728,7 +1731,7 @@
       <c r="B123" s="4">
         <v>0</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1739,7 +1742,7 @@
       <c r="B124" s="4">
         <v>0</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1750,7 +1753,7 @@
       <c r="B125" s="4">
         <v>0</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1761,7 +1764,7 @@
       <c r="B126" s="4">
         <v>0</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1772,7 +1775,7 @@
       <c r="B127" s="4">
         <v>0</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1783,7 +1786,7 @@
       <c r="B128" s="4">
         <v>0</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1794,7 +1797,7 @@
       <c r="B129" s="4">
         <v>0</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1805,7 +1808,7 @@
       <c r="B130" s="4">
         <v>0</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1816,7 +1819,7 @@
       <c r="B131" s="4">
         <v>0</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1827,7 +1830,7 @@
       <c r="B132" s="4">
         <v>0</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1838,7 +1841,7 @@
       <c r="B133" s="4">
         <v>0</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1849,7 +1852,7 @@
       <c r="B134" s="4">
         <v>0</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1860,7 +1863,7 @@
       <c r="B135" s="4">
         <v>0</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1871,7 +1874,7 @@
       <c r="B136" s="4">
         <v>0</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1882,7 +1885,7 @@
       <c r="B137" s="4">
         <v>0</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1893,7 +1896,7 @@
       <c r="B138" s="4">
         <v>0</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1904,7 +1907,7 @@
       <c r="B139" s="4">
         <v>0</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1915,7 +1918,7 @@
       <c r="B140" s="4">
         <v>0</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1926,7 +1929,7 @@
       <c r="B141" s="4">
         <v>0</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1937,7 +1940,7 @@
       <c r="B142" s="4">
         <v>0</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1948,7 +1951,7 @@
       <c r="B143" s="4">
         <v>0</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1959,7 +1962,7 @@
       <c r="B144" s="4">
         <v>0</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1970,7 +1973,7 @@
       <c r="B145" s="4">
         <v>0</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1981,7 +1984,7 @@
       <c r="B146" s="4">
         <v>0</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -1992,7 +1995,7 @@
       <c r="B147" s="4">
         <v>0</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2003,7 +2006,7 @@
       <c r="B148" s="4">
         <v>0</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2014,7 +2017,7 @@
       <c r="B149" s="4">
         <v>0</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2025,7 +2028,7 @@
       <c r="B150" s="4">
         <v>0</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2036,7 +2039,7 @@
       <c r="B151" s="4">
         <v>0</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2047,7 +2050,7 @@
       <c r="B152" s="4">
         <v>0</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2058,7 +2061,7 @@
       <c r="B153" s="4">
         <v>0</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2069,7 +2072,7 @@
       <c r="B154" s="4">
         <v>0</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2080,7 +2083,7 @@
       <c r="B155" s="4">
         <v>0</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2091,7 +2094,7 @@
       <c r="B156" s="4">
         <v>0</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2102,7 +2105,7 @@
       <c r="B157" s="4">
         <v>0</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2113,7 +2116,7 @@
       <c r="B158" s="4">
         <v>0</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2124,7 +2127,7 @@
       <c r="B159" s="4">
         <v>0</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2135,7 +2138,7 @@
       <c r="B160" s="4">
         <v>0</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2146,7 +2149,7 @@
       <c r="B161" s="4">
         <v>0</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2157,7 +2160,7 @@
       <c r="B162" s="4">
         <v>0</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2168,7 +2171,7 @@
       <c r="B163" s="4">
         <v>0</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2179,7 +2182,7 @@
       <c r="B164" s="4">
         <v>0</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2190,7 +2193,7 @@
       <c r="B165" s="4">
         <v>0</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2201,7 +2204,7 @@
       <c r="B166" s="4">
         <v>0</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2212,7 +2215,7 @@
       <c r="B167" s="4">
         <v>0</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2223,7 +2226,7 @@
       <c r="B168" s="4">
         <v>0</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2234,7 +2237,7 @@
       <c r="B169" s="4">
         <v>0</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2245,7 +2248,7 @@
       <c r="B170" s="4">
         <v>0</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2256,7 +2259,7 @@
       <c r="B171" s="4">
         <v>0</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2267,7 +2270,7 @@
       <c r="B172" s="4">
         <v>0</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2278,7 +2281,7 @@
       <c r="B173" s="4">
         <v>0</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2289,7 +2292,7 @@
       <c r="B174" s="4">
         <v>0</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2300,7 +2303,7 @@
       <c r="B175" s="4">
         <v>0</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2311,7 +2314,7 @@
       <c r="B176" s="4">
         <v>0</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2322,7 +2325,7 @@
       <c r="B177" s="4">
         <v>0</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2333,7 +2336,7 @@
       <c r="B178" s="4">
         <v>0</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2344,7 +2347,7 @@
       <c r="B179" s="4">
         <v>0</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2355,7 +2358,7 @@
       <c r="B180" s="4">
         <v>0</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2366,7 +2369,7 @@
       <c r="B181" s="4">
         <v>0</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2377,7 +2380,7 @@
       <c r="B182" s="4">
         <v>0</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2388,7 +2391,7 @@
       <c r="B183" s="4">
         <v>0</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2399,7 +2402,7 @@
       <c r="B184" s="4">
         <v>0</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2410,7 +2413,7 @@
       <c r="B185" s="4">
         <v>0</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2421,7 +2424,7 @@
       <c r="B186" s="4">
         <v>0</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2432,7 +2435,7 @@
       <c r="B187" s="4">
         <v>0</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2443,7 +2446,7 @@
       <c r="B188" s="4">
         <v>0</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2454,7 +2457,7 @@
       <c r="B189" s="4">
         <v>0</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2465,7 +2468,7 @@
       <c r="B190" s="4">
         <v>0</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2476,7 +2479,7 @@
       <c r="B191" s="4">
         <v>0</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2487,7 +2490,7 @@
       <c r="B192" s="4">
         <v>0</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2498,7 +2501,7 @@
       <c r="B193" s="4">
         <v>0</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2509,7 +2512,7 @@
       <c r="B194" s="4">
         <v>0</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2520,7 +2523,7 @@
       <c r="B195" s="4">
         <v>0</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2531,7 +2534,7 @@
       <c r="B196" s="4">
         <v>0</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2542,7 +2545,7 @@
       <c r="B197" s="4">
         <v>0</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2553,7 +2556,7 @@
       <c r="B198" s="4">
         <v>0</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2564,7 +2567,7 @@
       <c r="B199" s="4">
         <v>0</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2575,7 +2578,7 @@
       <c r="B200" s="4">
         <v>0</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2586,7 +2589,7 @@
       <c r="B201" s="4">
         <v>0</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2597,7 +2600,7 @@
       <c r="B202" s="4">
         <v>0</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2608,7 +2611,7 @@
       <c r="B203" s="4">
         <v>0</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2619,7 +2622,7 @@
       <c r="B204" s="4">
         <v>0</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2630,7 +2633,7 @@
       <c r="B205" s="4">
         <v>0</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2641,7 +2644,7 @@
       <c r="B206" s="4">
         <v>0</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2652,7 +2655,7 @@
       <c r="B207" s="4">
         <v>0</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2663,7 +2666,7 @@
       <c r="B208" s="4">
         <v>0</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2674,7 +2677,7 @@
       <c r="B209" s="4">
         <v>0</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2685,7 +2688,7 @@
       <c r="B210" s="4">
         <v>0</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2696,7 +2699,7 @@
       <c r="B211" s="4">
         <v>0</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2707,7 +2710,7 @@
       <c r="B212" s="4">
         <v>0</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2718,7 +2721,7 @@
       <c r="B213" s="4">
         <v>0</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2729,7 +2732,7 @@
       <c r="B214" s="4">
         <v>0</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2740,7 +2743,7 @@
       <c r="B215" s="4">
         <v>0</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2751,7 +2754,7 @@
       <c r="B216" s="4">
         <v>0</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2762,7 +2765,7 @@
       <c r="B217" s="4">
         <v>0</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2773,7 +2776,7 @@
       <c r="B218" s="4">
         <v>0</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2784,7 +2787,7 @@
       <c r="B219" s="4">
         <v>0</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2795,7 +2798,7 @@
       <c r="B220" s="4">
         <v>0</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2806,7 +2809,7 @@
       <c r="B221" s="4">
         <v>0</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2817,7 +2820,7 @@
       <c r="B222" s="4">
         <v>0</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2828,7 +2831,7 @@
       <c r="B223" s="4">
         <v>0</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2839,7 +2842,7 @@
       <c r="B224" s="4">
         <v>0</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2850,7 +2853,7 @@
       <c r="B225" s="4">
         <v>0</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2861,7 +2864,7 @@
       <c r="B226" s="4">
         <v>0</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2872,7 +2875,7 @@
       <c r="B227" s="4">
         <v>0</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2883,7 +2886,7 @@
       <c r="B228" s="4">
         <v>0</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2894,7 +2897,7 @@
       <c r="B229" s="4">
         <v>0</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2905,7 +2908,7 @@
       <c r="B230" s="4">
         <v>0</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2916,7 +2919,7 @@
       <c r="B231" s="4">
         <v>0</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2927,7 +2930,7 @@
       <c r="B232" s="4">
         <v>0</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2938,7 +2941,7 @@
       <c r="B233" s="4">
         <v>0</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2949,7 +2952,7 @@
       <c r="B234" s="4">
         <v>0</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2960,7 +2963,7 @@
       <c r="B235" s="4">
         <v>0</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2971,7 +2974,7 @@
       <c r="B236" s="4">
         <v>0</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2982,7 +2985,7 @@
       <c r="B237" s="4">
         <v>0</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -2993,7 +2996,7 @@
       <c r="B238" s="4">
         <v>0</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3004,7 +3007,7 @@
       <c r="B239" s="4">
         <v>0</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3015,7 +3018,7 @@
       <c r="B240" s="4">
         <v>0</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3026,7 +3029,7 @@
       <c r="B241" s="4">
         <v>0</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3037,7 +3040,7 @@
       <c r="B242" s="4">
         <v>0</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3048,7 +3051,7 @@
       <c r="B243" s="4">
         <v>0</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3059,7 +3062,7 @@
       <c r="B244" s="4">
         <v>0</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3070,7 +3073,7 @@
       <c r="B245" s="4">
         <v>0</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3081,7 +3084,7 @@
       <c r="B246" s="4">
         <v>0</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3092,7 +3095,7 @@
       <c r="B247" s="4">
         <v>0</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3103,7 +3106,7 @@
       <c r="B248" s="4">
         <v>0</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3114,7 +3117,7 @@
       <c r="B249" s="4">
         <v>0</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3125,7 +3128,7 @@
       <c r="B250" s="4">
         <v>0</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3136,7 +3139,7 @@
       <c r="B251" s="4">
         <v>0</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3147,7 +3150,7 @@
       <c r="B252" s="4">
         <v>0</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3158,7 +3161,7 @@
       <c r="B253" s="4">
         <v>0</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3169,7 +3172,7 @@
       <c r="B254" s="4">
         <v>0</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3180,7 +3183,7 @@
       <c r="B255" s="4">
         <v>0</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3191,7 +3194,7 @@
       <c r="B256" s="4">
         <v>0</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3202,7 +3205,7 @@
       <c r="B257" s="4">
         <v>0</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3213,7 +3216,7 @@
       <c r="B258" s="4">
         <v>0</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3224,7 +3227,7 @@
       <c r="B259" s="4">
         <v>0</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3235,7 +3238,7 @@
       <c r="B260" s="4">
         <v>0</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3246,7 +3249,7 @@
       <c r="B261" s="4">
         <v>0</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3257,7 +3260,7 @@
       <c r="B262" s="4">
         <v>0</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3268,7 +3271,7 @@
       <c r="B263" s="4">
         <v>0</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3279,7 +3282,7 @@
       <c r="B264" s="4">
         <v>0</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3290,7 +3293,7 @@
       <c r="B265" s="4">
         <v>0</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3301,7 +3304,7 @@
       <c r="B266" s="4">
         <v>0</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3312,7 +3315,7 @@
       <c r="B267" s="4">
         <v>0</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3323,7 +3326,7 @@
       <c r="B268" s="4">
         <v>0</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3334,7 +3337,7 @@
       <c r="B269" s="4">
         <v>0</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3345,7 +3348,7 @@
       <c r="B270" s="4">
         <v>0</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3356,7 +3359,7 @@
       <c r="B271" s="4">
         <v>0</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3367,7 +3370,7 @@
       <c r="B272" s="4">
         <v>0</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3378,7 +3381,7 @@
       <c r="B273" s="4">
         <v>0</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3389,7 +3392,7 @@
       <c r="B274" s="4">
         <v>0</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3400,7 +3403,7 @@
       <c r="B275" s="4">
         <v>0</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3411,7 +3414,7 @@
       <c r="B276" s="4">
         <v>0</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3422,7 +3425,7 @@
       <c r="B277" s="4">
         <v>0</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3433,7 +3436,7 @@
       <c r="B278" s="4">
         <v>0</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3444,7 +3447,7 @@
       <c r="B279" s="4">
         <v>0</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3455,7 +3458,7 @@
       <c r="B280" s="4">
         <v>0</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3466,7 +3469,7 @@
       <c r="B281" s="4">
         <v>0</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3477,7 +3480,7 @@
       <c r="B282" s="4">
         <v>0</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3488,7 +3491,7 @@
       <c r="B283" s="4">
         <v>0</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3499,7 +3502,7 @@
       <c r="B284" s="4">
         <v>0</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3510,7 +3513,7 @@
       <c r="B285" s="4">
         <v>0</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="2">
         <v>2888.3</v>
       </c>
     </row>
@@ -3521,8 +3524,96 @@
       <c r="B286" s="4">
         <v>0</v>
       </c>
-      <c r="C286">
-        <v>2888.3</v>
+      <c r="C286" s="2">
+        <v>2888.3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45226.125023148146</v>
+      </c>
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45226.166689814818</v>
+      </c>
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45226.208356481482</v>
+      </c>
+      <c r="B289" s="4">
+        <v>0</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45226.250023148146</v>
+      </c>
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45226.291701388887</v>
+      </c>
+      <c r="B291" s="4">
+        <v>0</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45226.333368055559</v>
+      </c>
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45226.375034722223</v>
+      </c>
+      <c r="B293" s="4">
+        <v>0</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45226.416701388887</v>
+      </c>
+      <c r="B294" s="4">
+        <v>0</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
